--- a/data/trans_dic/POLIPATOLOGIA_5-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_5-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01507406187076692</v>
+        <v>0.0151671623041777</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02603359248085229</v>
+        <v>0.02586684181376855</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02906375014554565</v>
+        <v>0.02985801188263574</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08209364102416337</v>
+        <v>0.08295833779233371</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02577295584535286</v>
+        <v>0.02516402826935112</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07475132679456738</v>
+        <v>0.0738830408492762</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08718598219761386</v>
+        <v>0.0885751282156189</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1586835997909522</v>
+        <v>0.1575822712783554</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02326127873858214</v>
+        <v>0.02301450575611246</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05488863954747248</v>
+        <v>0.05372721717868828</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06370883342984626</v>
+        <v>0.06318454199950928</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.124047388296888</v>
+        <v>0.1261003071151182</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03909141951203429</v>
+        <v>0.03859370073621222</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05605346984678589</v>
+        <v>0.05527951395683398</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06014001024253094</v>
+        <v>0.06008348455737685</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1237268560043893</v>
+        <v>0.1244315012229795</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05510382090273025</v>
+        <v>0.05464394602717978</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1207792775467179</v>
+        <v>0.1182834840586588</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1363383129844536</v>
+        <v>0.1375561617539965</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1970154191000468</v>
+        <v>0.196719168903987</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04104924306157306</v>
+        <v>0.04135160252171486</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08279814390889967</v>
+        <v>0.08298137517524247</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09208564417318345</v>
+        <v>0.0908550894907876</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1548150236932352</v>
+        <v>0.1560090344506272</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02598815117199194</v>
+        <v>0.02586804741992303</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02535021325866284</v>
+        <v>0.02594026171478315</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02155579717082192</v>
+        <v>0.02294545330494699</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06587612667506737</v>
+        <v>0.06604577102126498</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04323442574841312</v>
+        <v>0.04335748748226292</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0740584020864572</v>
+        <v>0.07277176575768474</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07273834399741323</v>
+        <v>0.07124415105394781</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1382040729885968</v>
+        <v>0.1376979198594617</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03835223011028942</v>
+        <v>0.03825601158684177</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05377104094992226</v>
+        <v>0.05303422749809703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05024180340302514</v>
+        <v>0.05081487247764389</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1070854773182867</v>
+        <v>0.1061589068202</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05006881274843922</v>
+        <v>0.05007008810802684</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04983238163154236</v>
+        <v>0.04964440773703754</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04329746210415488</v>
+        <v>0.04447293895363742</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0976262961212252</v>
+        <v>0.09812265609005574</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07617009494618614</v>
+        <v>0.0762055497445189</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1093039616178096</v>
+        <v>0.1112494142903704</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1123607059400422</v>
+        <v>0.10817944457965</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1727339627001897</v>
+        <v>0.1722602396155919</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05815991492520097</v>
+        <v>0.05937996857381733</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07670466438747103</v>
+        <v>0.07534709876310053</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07289876153851715</v>
+        <v>0.07292850891974266</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1302752329173382</v>
+        <v>0.1296722786016633</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.08437792288818788</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1467673463841592</v>
+        <v>0.1467673463841591</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.06862907393998308</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02240707331986529</v>
+        <v>0.02345472442282449</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02508729915859757</v>
+        <v>0.0270610643268598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02142085776709621</v>
+        <v>0.0213821608319776</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05716500289268509</v>
+        <v>0.05753687037287962</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.080371298508739</v>
+        <v>0.07971736857485623</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07281897564769843</v>
+        <v>0.07351897456175906</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06535657523217261</v>
+        <v>0.06578565003435356</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1260548471383683</v>
+        <v>0.1271220024372201</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05517883533261354</v>
+        <v>0.0570335044166393</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05382669170475255</v>
+        <v>0.05455789403125791</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04775465118989119</v>
+        <v>0.04818699655118899</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09614819733483991</v>
+        <v>0.09595165601456671</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05295854708489856</v>
+        <v>0.05212409800665137</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.057749573913553</v>
+        <v>0.05683587361179567</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04880895673175547</v>
+        <v>0.04740371340111847</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09436793218601935</v>
+        <v>0.09522237623804222</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.124588144430474</v>
+        <v>0.1243788537649222</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1167272879083601</v>
+        <v>0.1141289999165318</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1061652532377346</v>
+        <v>0.1071605911080369</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1676416514809064</v>
+        <v>0.1686036650414795</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08277220034027606</v>
+        <v>0.08336456663442465</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08068237811846744</v>
+        <v>0.07990097446105955</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07289110098065961</v>
+        <v>0.07175606398683576</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1257150816254464</v>
+        <v>0.1248673426333372</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.07458333729638314</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.133027696986671</v>
+        <v>0.1330276969866709</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02746697418789074</v>
+        <v>0.02843910891104457</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02633650986553676</v>
+        <v>0.02628608440522174</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02435278529418331</v>
+        <v>0.02436484515213152</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06875006878213295</v>
+        <v>0.06909391029361631</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05583164163738878</v>
+        <v>0.05639615510212562</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09386745230717196</v>
+        <v>0.09379098537042893</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08880458388263694</v>
+        <v>0.08970692003171772</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1606445800617353</v>
+        <v>0.1585895350680652</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04634058455747236</v>
+        <v>0.04566531933472541</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06563814686639362</v>
+        <v>0.06570880272189757</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06264130397142589</v>
+        <v>0.06208342349803972</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1211994176782893</v>
+        <v>0.1210827282166649</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04971105761188697</v>
+        <v>0.05069166869428218</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05209500641575896</v>
+        <v>0.05418853869586298</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05031118242082094</v>
+        <v>0.0510805084388042</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0998520542910741</v>
+        <v>0.1024886565966723</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08825556249755255</v>
+        <v>0.08958008130523071</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1358915488707718</v>
+        <v>0.1332937340773736</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1313155572372811</v>
+        <v>0.1297586251499471</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1976852584057298</v>
+        <v>0.1972584057470775</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06643665255216831</v>
+        <v>0.06647696731298286</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09042093962547275</v>
+        <v>0.09067136253347174</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08780034502734337</v>
+        <v>0.08604891025732785</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1448230164884156</v>
+        <v>0.1448806207078969</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03520085888637804</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08395997600994848</v>
+        <v>0.08395997600994846</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06704220913826139</v>
@@ -1229,7 +1229,7 @@
         <v>0.0979509047708593</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1638784621599326</v>
+        <v>0.1638784621599325</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.05084127958350297</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02831684981217865</v>
+        <v>0.02857506075762491</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03149872547148206</v>
+        <v>0.0316582666591371</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02931786472669364</v>
+        <v>0.0296709665606585</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07545796431254684</v>
+        <v>0.07516693162555334</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05774682142247951</v>
+        <v>0.05882745501679269</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08918912324439045</v>
+        <v>0.08872508609844039</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08741900864611142</v>
+        <v>0.08853682970256956</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.154330419170001</v>
+        <v>0.154502949487301</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04555235749649706</v>
+        <v>0.04568769743438784</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06278299349435058</v>
+        <v>0.0630127691804012</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0611714150751944</v>
+        <v>0.06112337699167627</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1185088046878754</v>
+        <v>0.1188536030113951</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0409598624463102</v>
+        <v>0.04011527088171515</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04481191429653711</v>
+        <v>0.04533108741384586</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04195810045325855</v>
+        <v>0.04222104688561251</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09340205932408133</v>
+        <v>0.09256652663953151</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07628596346720221</v>
+        <v>0.07666604801319707</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1092212705839782</v>
+        <v>0.1097446696746234</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1087175767045439</v>
+        <v>0.1097496566125327</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1733462312597545</v>
+        <v>0.1737074110250952</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05653245456705201</v>
+        <v>0.05610308618877982</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07506897170087763</v>
+        <v>0.07597848573440485</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0739883429252135</v>
+        <v>0.0738867472995807</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1314269415704956</v>
+        <v>0.1318895371300452</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10462</v>
+        <v>10526</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18314</v>
+        <v>18197</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19612</v>
+        <v>20148</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>56703</v>
+        <v>57300</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17741</v>
+        <v>17322</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>52105</v>
+        <v>51500</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>58662</v>
+        <v>59597</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>116502</v>
+        <v>115694</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>32156</v>
+        <v>31814</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>76873</v>
+        <v>75246</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>85857</v>
+        <v>85150</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>176754</v>
+        <v>179679</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>27130</v>
+        <v>26784</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>39432</v>
+        <v>38887</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40582</v>
+        <v>40544</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>85459</v>
+        <v>85946</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>37931</v>
+        <v>37614</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>84189</v>
+        <v>82450</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>91734</v>
+        <v>92553</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>144645</v>
+        <v>144427</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>56745</v>
+        <v>57163</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>115960</v>
+        <v>116217</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>124098</v>
+        <v>122440</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>220594</v>
+        <v>222296</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24995</v>
+        <v>24880</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>25805</v>
+        <v>26406</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>22039</v>
+        <v>23460</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>69099</v>
+        <v>69277</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>41868</v>
+        <v>41987</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>76442</v>
+        <v>75114</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>75860</v>
+        <v>74301</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>148082</v>
+        <v>147540</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>74027</v>
+        <v>73841</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>110238</v>
+        <v>108727</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>103767</v>
+        <v>104950</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>227063</v>
+        <v>225098</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>48156</v>
+        <v>48157</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50727</v>
+        <v>50535</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44269</v>
+        <v>45471</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>102402</v>
+        <v>102923</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>73763</v>
+        <v>73797</v>
       </c>
       <c r="H11" s="6" t="n">
+        <v>114830</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <v>112822</v>
       </c>
-      <c r="I11" s="6" t="n">
-        <v>117182</v>
-      </c>
       <c r="J11" s="6" t="n">
-        <v>185080</v>
+        <v>184572</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>112260</v>
+        <v>114615</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>157255</v>
+        <v>154471</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>150561</v>
+        <v>150622</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>276234</v>
+        <v>274956</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15203</v>
+        <v>15914</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19007</v>
+        <v>20502</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16270</v>
+        <v>16241</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>45908</v>
+        <v>46206</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>54961</v>
+        <v>54514</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>56593</v>
+        <v>57137</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>51306</v>
+        <v>51642</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>102389</v>
+        <v>103256</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>75173</v>
+        <v>77700</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>82613</v>
+        <v>83735</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>73760</v>
+        <v>74428</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>155311</v>
+        <v>154994</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35933</v>
+        <v>35367</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>43752</v>
+        <v>43060</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>37073</v>
+        <v>36006</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>75784</v>
+        <v>76471</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>85198</v>
+        <v>85055</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>90717</v>
+        <v>88698</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>83341</v>
+        <v>84122</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>136168</v>
+        <v>136950</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>112765</v>
+        <v>113572</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>123831</v>
+        <v>122632</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>112585</v>
+        <v>110832</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>203072</v>
+        <v>201702</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25880</v>
+        <v>26796</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24960</v>
+        <v>24912</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22832</v>
+        <v>22844</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>68067</v>
+        <v>68407</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>57987</v>
+        <v>58574</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>98739</v>
+        <v>98659</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>92692</v>
+        <v>93634</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>179768</v>
+        <v>177468</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>91793</v>
+        <v>90455</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>131253</v>
+        <v>131394</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>124114</v>
+        <v>123009</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>255622</v>
+        <v>255376</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>46839</v>
+        <v>47763</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>49372</v>
+        <v>51357</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47170</v>
+        <v>47891</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>98860</v>
+        <v>101470</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>91663</v>
+        <v>93039</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>142944</v>
+        <v>140212</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>137064</v>
+        <v>135439</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>221218</v>
+        <v>220740</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>131600</v>
+        <v>131680</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>180809</v>
+        <v>181310</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>173963</v>
+        <v>170493</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>305447</v>
+        <v>305568</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>92781</v>
+        <v>93627</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>107939</v>
+        <v>108486</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>99515</v>
+        <v>100714</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>266575</v>
+        <v>265547</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>195138</v>
+        <v>198790</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>317362</v>
+        <v>315711</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>309860</v>
+        <v>313823</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>576726</v>
+        <v>577370</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>303185</v>
+        <v>304085</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>438545</v>
+        <v>440150</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>424462</v>
+        <v>424129</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>861525</v>
+        <v>864032</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>134207</v>
+        <v>131439</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>153561</v>
+        <v>155340</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>142420</v>
+        <v>143313</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>329967</v>
+        <v>327016</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>257785</v>
+        <v>259070</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>388643</v>
+        <v>390505</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>385354</v>
+        <v>389012</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>647787</v>
+        <v>649137</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>376265</v>
+        <v>373408</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>524363</v>
+        <v>530716</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>513397</v>
+        <v>512692</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>955437</v>
+        <v>958799</v>
       </c>
     </row>
     <row r="24">
